--- a/medicine/Psychotrope/Décibulles/Décibulles.xlsx
+++ b/medicine/Psychotrope/Décibulles/Décibulles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9cibulles</t>
+          <t>Décibulles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décibulles est un festival de musique qui se déroule chaque année en juillet dans la commune de Neuve-Église (Bas-Rhin). Sur trois jours, il accueille une trentaine de groupes de musiques actuelles à chaque édition.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9cibulles</t>
+          <t>Décibulles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décibulles est créé en 1992 et associe festival de rock et fête de la bière.
 Après une pause en 2002 pour rechercher un nouveau site, le festival s'installe au Chéna en 2003.
 Le festival fait de nouveau une pause en 2005 à cause de difficultés financières.
 En 2006, l'événement passe à trois jours.
-En 2020, le festival est annulé en raison de la pandémie de Covid-19[1].
+En 2020, le festival est annulé en raison de la pandémie de Covid-19.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9cibulles</t>
+          <t>Décibulles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9cibulles</t>
+          <t>Décibulles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Budget</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, le budget est de 520 000€[12].
-En 2019 il est de 1 million d'euros et le festival reçoit une subvention de 55 000€ du conseil régional[3].
-En 2023, le budget du festival est de 2 000 000€, dont 250 000€ proviennent de subventions publiques et 200 000€ du mécénat (120 entreprises locales)[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, le budget est de 520 000€.
+En 2019 il est de 1 million d'euros et le festival reçoit une subvention de 55 000€ du conseil régional.
+En 2023, le budget du festival est de 2 000 000€, dont 250 000€ proviennent de subventions publiques et 200 000€ du mécénat (120 entreprises locales).
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9cibulles</t>
+          <t>Décibulles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,64 +626,18 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Première décennie (de 1992 à 2001)
-Édition de 1992
-Le festival se déroulait sur deux journées (samedi et dimanche), la seconde étant gratuite.
-Édition de 1993
-Édition de 1994
-Les deux premières éditions couplaient un samedi soir "rock", payant, avec un dimanche après-midi "champêtre", gratuit. Mais la formule ne fit pas succès et fut donc modifiée. Le dimanche après-midi devient lui aussi "rock" et payant. Malgré une affiche musicale attractive, le public était bien moins nombreux que la veille au soir.
-Édition de 1995
-Pour sa 4e édition, le festival a trouvé sa formule idéale : deux soirées "rock", le vendredi et le samedi.
-Édition de 1996
-Édition de 1997
-C'est pour la 6e édition que le festival devient indépendant au sein d'une nouvelle structure organisatrice, l'Association Décibulles.
-Édition de 1998
-Le festival grandit et compte 5 000 festivaliers pour cette 7e édition.
-Édition de 1999
-Édition de 2000
-Le festival a poursuivi sa progression avec 6 000 entrées pour sa 9e édition, marquées par les premiers "sold-out", la plupart des billets ayant trouvé preneurs en location.
-Édition de 2001 - les 10 ans !
-La 10e édition fut une réussite totale (7 000 entrées) avec une décoration de fête et des cadeaux d'anniversaire : des feux d'artifice musicaux chaque soir et un grand groupe « surprise » pour clore le festival. Le nom de celui-ci ne fut dévoilé qu'à son entrée sur scène, "Matmatah".
-Deuxième décennie (de 2003 à 2013)
-Édition de 2003
-La 11e édition marque un nouveau tournant puisque le festival s'installe sur un nouveau site plus grand. C'est le lieu-dit «le Chena» dans la Vallée de Villé. La programmation est multipliée par deux grâce au rajout d'une scène.
-Ainsi, 16 groupes de renommée locale et internationale, se sont succédé sur les scènes "Galopins" et "La chope". 
-Résultat : 12 000 festivaliers !!
-Édition de 2004
-Édition de 2006
-Le festival adopte le slogan "Brasseur de rock".
-10 000 personnes ont assisté à la 13e édition du festival.
-Édition de 2007
-Deux journées de têtes d'affiches laissent ensuite la place à une journée du dimanche qui se veut plus familiale et grand public, notamment grâce à un tarif plus attractif, des découvertes et artistes montants de la scène française ou régionale. 16 000 festivaliers assistent à cette édition.
-Édition de 2008
-Édition de 2009
-La 16e édition a accueilli 16 000 festivaliers.
-Édition de 2010
-Édition de 2011
-La 18e édition s'est déroulée les 24, 25 et 26 juin.
-Édition de 2012
-La 19e édition a eu lieu les 6, 7 et 8 juillet.
-Édition de 2013 - les 20 ans !
-Le festival a fêté sa 20e édition les 12, 13 et 14 juillet.
-Programmation artistique
-Arts de rues et Impromptus musicaux
-Troisième décennie (de 2014 à aujourd'hui)
-Édition de 2014
-Le festival a démarré une nouvelle décennie (21e édition) les 11, 12 et 13 juillet.
-Programmation artistique
-Arts de rues et Impromptus musicaux
-Édition de 2015
-Les 10, 11 et 12 juillet, le festival Décibulles s'est préparé pour un road-trip musical et festif trois jours durant. Après une 21e édition record avec pas moins de 23 500 festivaliers, l’association Décibulles s’est retroussée les manches afin d’offrir au public un événement de qualité, une décoration soignée et une convivialité assurée. Et pour la première fois de son histoire, le festival a affiché complet trois soirs de suite, soit 26 000 festivaliers !
-Programmation artistique
-Arts de rues et Impromptus musicaux
-Édition de 2016
-Les 8, 9 et 10 juillet 2016, l’association Décibulles s’est donnée des ailes et a concocté une 23ème édition dansante, la tête dans les étoiles et les pieds sur terre. Il fallait à n’en pas douter être sur la colline du Chena pour partager une parenthèse enchantée et inoubliable ! Pour la deuxième année consécutive, le festival a affiché complet les 3 soirs avec 26 000 festivaliers.
-Programmation artistique
-Arts de rues et Impromptus musicaux
-Édition de 2017
-Les 14, 15 et 16 juillet 2017, l’association Décibulles s’est donnée des ailes et a concocté une 24ème édition dansante, la tête dans les étoiles et les pieds sur terre.
-Programmation artistique
-Arts de rues et Impromptus musicaux</t>
+          <t>Première décennie (de 1992 à 2001)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Édition de 1992</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le festival se déroulait sur deux journées (samedi et dimanche), la seconde étant gratuite.
+</t>
         </is>
       </c>
     </row>
@@ -675,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9cibulles</t>
+          <t>Décibulles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -690,18 +662,720 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première décennie (de 1992 à 2001)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Édition de 1994</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux premières éditions couplaient un samedi soir "rock", payant, avec un dimanche après-midi "champêtre", gratuit. Mais la formule ne fit pas succès et fut donc modifiée. Le dimanche après-midi devient lui aussi "rock" et payant. Malgré une affiche musicale attractive, le public était bien moins nombreux que la veille au soir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Première décennie (de 1992 à 2001)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Édition de 1995</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour sa 4e édition, le festival a trouvé sa formule idéale : deux soirées "rock", le vendredi et le samedi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Première décennie (de 1992 à 2001)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Édition de 1997</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est pour la 6e édition que le festival devient indépendant au sein d'une nouvelle structure organisatrice, l'Association Décibulles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Première décennie (de 1992 à 2001)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Édition de 1998</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le festival grandit et compte 5 000 festivaliers pour cette 7e édition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Première décennie (de 1992 à 2001)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Édition de 2000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le festival a poursuivi sa progression avec 6 000 entrées pour sa 9e édition, marquées par les premiers "sold-out", la plupart des billets ayant trouvé preneurs en location.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Première décennie (de 1992 à 2001)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Édition de 2001 - les 10 ans !</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 10e édition fut une réussite totale (7 000 entrées) avec une décoration de fête et des cadeaux d'anniversaire : des feux d'artifice musicaux chaque soir et un grand groupe « surprise » pour clore le festival. Le nom de celui-ci ne fut dévoilé qu'à son entrée sur scène, "Matmatah".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Deuxième décennie (de 2003 à 2013)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Édition de 2003</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 11e édition marque un nouveau tournant puisque le festival s'installe sur un nouveau site plus grand. C'est le lieu-dit «le Chena» dans la Vallée de Villé. La programmation est multipliée par deux grâce au rajout d'une scène.
+Ainsi, 16 groupes de renommée locale et internationale, se sont succédé sur les scènes "Galopins" et "La chope". 
+Résultat : 12 000 festivaliers !!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Deuxième décennie (de 2003 à 2013)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Édition de 2006</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le festival adopte le slogan "Brasseur de rock".
+10 000 personnes ont assisté à la 13e édition du festival.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Deuxième décennie (de 2003 à 2013)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Édition de 2007</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux journées de têtes d'affiches laissent ensuite la place à une journée du dimanche qui se veut plus familiale et grand public, notamment grâce à un tarif plus attractif, des découvertes et artistes montants de la scène française ou régionale. 16 000 festivaliers assistent à cette édition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Deuxième décennie (de 2003 à 2013)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Édition de 2009</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 16e édition a accueilli 16 000 festivaliers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Deuxième décennie (de 2003 à 2013)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Édition de 2011</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 18e édition s'est déroulée les 24, 25 et 26 juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Deuxième décennie (de 2003 à 2013)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Édition de 2012</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La 19e édition a eu lieu les 6, 7 et 8 juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Deuxième décennie (de 2003 à 2013)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Édition de 2013 - les 20 ans !</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Le festival a fêté sa 20e édition les 12, 13 et 14 juillet.
+Programmation artistique
+Arts de rues et Impromptus musicaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Troisième décennie (de 2014 à aujourd'hui)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Édition de 2014</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Le festival a démarré une nouvelle décennie (21e édition) les 11, 12 et 13 juillet.
+Programmation artistique
+Arts de rues et Impromptus musicaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Troisième décennie (de 2014 à aujourd'hui)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Édition de 2015</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Les 10, 11 et 12 juillet, le festival Décibulles s'est préparé pour un road-trip musical et festif trois jours durant. Après une 21e édition record avec pas moins de 23 500 festivaliers, l’association Décibulles s’est retroussée les manches afin d’offrir au public un événement de qualité, une décoration soignée et une convivialité assurée. Et pour la première fois de son histoire, le festival a affiché complet trois soirs de suite, soit 26 000 festivaliers !
+Programmation artistique
+Arts de rues et Impromptus musicaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Troisième décennie (de 2014 à aujourd'hui)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Édition de 2016</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Les 8, 9 et 10 juillet 2016, l’association Décibulles s’est donnée des ailes et a concocté une 23ème édition dansante, la tête dans les étoiles et les pieds sur terre. Il fallait à n’en pas douter être sur la colline du Chena pour partager une parenthèse enchantée et inoubliable ! Pour la deuxième année consécutive, le festival a affiché complet les 3 soirs avec 26 000 festivaliers.
+Programmation artistique
+Arts de rues et Impromptus musicaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Historique des différentes éditions</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Troisième décennie (de 2014 à aujourd'hui)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Édition de 2017</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Les 14, 15 et 16 juillet 2017, l’association Décibulles s’est donnée des ailes et a concocté une 24ème édition dansante, la tête dans les étoiles et les pieds sur terre.
+Programmation artistique
+Arts de rues et Impromptus musicaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Décibulles</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9cibulles</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Décibulles Worldwide Company</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 2010, l'association a décidé d'organiser des manifestations (concerts, cinéma, etc) en parallèle du festival Décibulles. Le but étant de favoriser la création de soirées en partenariat avec les différents acteurs locaux. Pour les différencier du festival, ces soirées sont nommées avec autodérision les Décibulles Worldwide Company (DWC).
-Éditions de 2010
-Éditions de 2011
-Éditions de 2012
-Éditions de 2013
-Édition de 2014
-Édition de 2015</t>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, l'association a décidé d'organiser des manifestations (concerts, cinéma, etc) en parallèle du festival Décibulles. Le but étant de favoriser la création de soirées en partenariat avec les différents acteurs locaux. Pour les différencier du festival, ces soirées sont nommées avec autodérision les Décibulles Worldwide Company (DWC).
+</t>
         </is>
       </c>
     </row>
